--- a/output/fit_clients/fit_round_213.xlsx
+++ b/output/fit_clients/fit_round_213.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1616120923.506286</v>
+        <v>2317448104.041939</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1018298411607223</v>
+        <v>0.1019154262769736</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03813147825960049</v>
+        <v>0.04333736191102236</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>808060405.7336094</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2604414324.57177</v>
+        <v>2274940550.770248</v>
       </c>
       <c r="F3" t="n">
-        <v>0.113950947941164</v>
+        <v>0.1200378803809639</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04078349370693919</v>
+        <v>0.04764997078607291</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1302207295.933745</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4218434860.082426</v>
+        <v>3584252582.793033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1464127315520859</v>
+        <v>0.1252530884655031</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0280198925578381</v>
+        <v>0.0350020534678311</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>77</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2109217459.678751</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4107219762.690579</v>
+        <v>2770606257.080306</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0854644435793267</v>
+        <v>0.07723114129267332</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03552911483253985</v>
+        <v>0.03256827449305625</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2053609877.959141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1736021015.341297</v>
+        <v>1883014613.524176</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1443021115252801</v>
+        <v>0.1035941793220307</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04427182393099665</v>
+        <v>0.03743442966934531</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>37</v>
-      </c>
-      <c r="J6" t="n">
-        <v>868010565.8129197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2031280706.615556</v>
+        <v>1907843412.206813</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07372856139155733</v>
+        <v>0.07435685170222672</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03374891739744592</v>
+        <v>0.04499646123555732</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>64</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1015640411.409649</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3898882635.191413</v>
+        <v>3246713185.412525</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1477588403953212</v>
+        <v>0.1388280792852801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03015727330764108</v>
+        <v>0.02224202011583973</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>68</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1949441466.981529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2287273520.064996</v>
+        <v>1961826568.637189</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1859004679321624</v>
+        <v>0.1242598469997503</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03007827198482558</v>
+        <v>0.03495039331589231</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1143636746.764113</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4151791972.095607</v>
+        <v>5519058418.078609</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1329493703263746</v>
+        <v>0.1587837562423945</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03293593882802718</v>
+        <v>0.04719120710731774</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>90</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2075896019.647738</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3131497536.749876</v>
+        <v>3369902291.611948</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1254925499436652</v>
+        <v>0.1488236874672325</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04233761825086059</v>
+        <v>0.03177644919689847</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1565748720.515812</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2679808954.281255</v>
+        <v>2232846842.993271</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1616837006552166</v>
+        <v>0.1586001594422499</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0341628247847837</v>
+        <v>0.04458389775921979</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1339904465.832378</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5292905014.461687</v>
+        <v>3363472651.997658</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09263860755322906</v>
+        <v>0.06550737129336856</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02306672745164963</v>
+        <v>0.02653755557828554</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>71</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2646452496.476083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3668572996.810812</v>
+        <v>3595957348.802158</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1299230386687433</v>
+        <v>0.1294887240533689</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03253924022881373</v>
+        <v>0.03044809250232752</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1834286484.422999</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1486228004.874999</v>
+        <v>1595356801.619596</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0946810959782238</v>
+        <v>0.08169706802672556</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04470693591815963</v>
+        <v>0.03270650513635365</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>743114084.8019865</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2833844565.447756</v>
+        <v>2218535260.229024</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08096582517126516</v>
+        <v>0.08075925166154928</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03467548341910384</v>
+        <v>0.04531405835963224</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>34</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1416922283.702103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3221316695.504544</v>
+        <v>4156842948.771364</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1751543664405758</v>
+        <v>0.1496840431295834</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03591336132672143</v>
+        <v>0.03919327227521278</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>62</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1610658420.846699</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3275016138.019702</v>
+        <v>3306909285.765926</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1817330812299215</v>
+        <v>0.1711168095128864</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02756977418092948</v>
+        <v>0.02153711333731615</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>70</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1637508079.304364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1153154021.477499</v>
+        <v>1069877659.299065</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1646802649983657</v>
+        <v>0.1226168172472645</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02027326960360325</v>
+        <v>0.02342397748604452</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>576577077.2233863</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2328510340.309532</v>
+        <v>2362363844.837187</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1254065995212615</v>
+        <v>0.1438962461250057</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02671783119328741</v>
+        <v>0.02295429316274454</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1164255161.500726</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2221818280.26488</v>
+        <v>2213622688.298814</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09237693568968335</v>
+        <v>0.069891011000018</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03376152381917896</v>
+        <v>0.03688940573123428</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1110909154.824073</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2671899464.122934</v>
+        <v>3907461670.855097</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1295565492331411</v>
+        <v>0.1414704728227744</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05010704134741594</v>
+        <v>0.04260943599401695</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>59</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1335949813.225657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1041239162.812202</v>
+        <v>951109965.841123</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1232349731070214</v>
+        <v>0.166568414110001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03714073336654544</v>
+        <v>0.03532353496108395</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>520619644.6220139</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2738637009.675147</v>
+        <v>2637324947.007793</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1419393596501569</v>
+        <v>0.1248908670045584</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03581130862812829</v>
+        <v>0.03406367626149546</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>62</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1369318557.634847</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1280969034.23459</v>
+        <v>1304967605.531562</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1210074061305839</v>
+        <v>0.1075956253344987</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02019997884437103</v>
+        <v>0.02979383635256997</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>640484516.4379224</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1120308427.623708</v>
+        <v>1108705324.945219</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09638801889447959</v>
+        <v>0.07666387397621598</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03174725460005661</v>
+        <v>0.0276310582397299</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>560154215.3302099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4265935190.390903</v>
+        <v>3974012056.609574</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1152748544005726</v>
+        <v>0.1407879348517264</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01799049088056438</v>
+        <v>0.01852360448046495</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2132967592.120382</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3889547039.074625</v>
+        <v>2748470520.043496</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1146790902074978</v>
+        <v>0.1459354623459992</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04981792272198164</v>
+        <v>0.03128847662603312</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>68</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1944773607.964821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4340655381.27364</v>
+        <v>5817243805.988102</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1208956427913451</v>
+        <v>0.14079052633625</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03220927677120968</v>
+        <v>0.03654596745562963</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>94</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2170327683.834584</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2082781611.037175</v>
+        <v>2410720409.841602</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08741725293286445</v>
+        <v>0.1119814763757332</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03445241044695951</v>
+        <v>0.0321660126732217</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1041390852.365958</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1239006663.568216</v>
+        <v>1250163055.76815</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1111627991429323</v>
+        <v>0.1103364673689605</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03752399612550433</v>
+        <v>0.03691623015703416</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>619503274.0513456</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1278855244.599831</v>
+        <v>1457136796.445242</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0897610379502031</v>
+        <v>0.09529034839995965</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02503418806277443</v>
+        <v>0.02393372791286958</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>639427644.8277017</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2036362877.126472</v>
+        <v>2031595981.201413</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1967013805790497</v>
+        <v>0.1625205825171608</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04009490074326465</v>
+        <v>0.05971126466343829</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1018181516.242698</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1534911327.803494</v>
+        <v>1392881286.573029</v>
       </c>
       <c r="F34" t="n">
-        <v>0.11501053442926</v>
+        <v>0.1160246378877984</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02079611071563238</v>
+        <v>0.01861368669367966</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>767455613.9919342</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1130058100.851165</v>
+        <v>836985981.6999599</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0964594702012333</v>
+        <v>0.09414906857323825</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03821924840841741</v>
+        <v>0.04097986504667371</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>565029040.478865</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3122963885.785281</v>
+        <v>2394586284.540593</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1167785281525076</v>
+        <v>0.1586194137458367</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0205406909492319</v>
+        <v>0.02210468281832212</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>54</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1561481914.926334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2834235547.375294</v>
+        <v>2125991565.921664</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08854991916947705</v>
+        <v>0.08028271011352218</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02872179392937265</v>
+        <v>0.0259611164676357</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>55</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1417117915.714411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1964271938.226725</v>
+        <v>1515111037.463545</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09887041638168033</v>
+        <v>0.108828168092696</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03389629534243137</v>
+        <v>0.03844613938460207</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>982135952.7704859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1953443893.46791</v>
+        <v>1538343353.691554</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1652983438584801</v>
+        <v>0.1797162857887148</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0214604776810608</v>
+        <v>0.03055402066648114</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>976721948.3265532</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1814167199.989937</v>
+        <v>1574000027.547935</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1317587171129568</v>
+        <v>0.1017176276447046</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04987272737127095</v>
+        <v>0.06012001947848634</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>907083487.5360087</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1908947025.677763</v>
+        <v>2923312806.843043</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1509017630845006</v>
+        <v>0.1466331799077553</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03694486362153992</v>
+        <v>0.04596090948757971</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>954473595.9611863</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4009499396.493497</v>
+        <v>2978274114.777574</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09993881767566411</v>
+        <v>0.1092684768937892</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04375703391252561</v>
+        <v>0.03048845509809721</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>74</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2004749728.159415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2762493155.753284</v>
+        <v>2491284514.765934</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1361101534420153</v>
+        <v>0.1902081332657927</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02256839531289324</v>
+        <v>0.01999236354903155</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>71</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1381246600.127543</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1811751650.595984</v>
+        <v>1508353948.915883</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09121905708215752</v>
+        <v>0.07572102294090728</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03510235727217879</v>
+        <v>0.03184495226768886</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>905875894.0567473</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1818568524.66577</v>
+        <v>2184380243.199901</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1851823170157015</v>
+        <v>0.1542807308756263</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03938472555117285</v>
+        <v>0.03881127553345486</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>909284234.8759741</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5608778641.876327</v>
+        <v>5425965077.17785</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1558024093882509</v>
+        <v>0.1353144559922117</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04046482790135081</v>
+        <v>0.0396768592475408</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>76</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2804389382.55782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3856671528.564248</v>
+        <v>3773645180.977235</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1328610497907349</v>
+        <v>0.1351173888769569</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05920728252681823</v>
+        <v>0.05169853760380457</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>57</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1928335755.283944</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3842384663.869114</v>
+        <v>4233624826.228646</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07686449442529458</v>
+        <v>0.08837597723314224</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03646037879271936</v>
+        <v>0.03786930006143829</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1921192375.436867</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1903619590.286033</v>
+        <v>1263965361.223938</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1305790930859365</v>
+        <v>0.1296542664596444</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02847799485725803</v>
+        <v>0.03688943216129102</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>951809764.3863502</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3297189818.098293</v>
+        <v>3913542358.167104</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1680460481343359</v>
+        <v>0.1571413075734851</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0366621196555672</v>
+        <v>0.04035197801278338</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>73</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1648594947.707297</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1518484162.24831</v>
+        <v>1475811584.089777</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165281832641384</v>
+        <v>0.1537820116658127</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05232368494859175</v>
+        <v>0.04167803506428661</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>759242081.0316814</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3444653084.781398</v>
+        <v>3538853176.039019</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1242879305547698</v>
+        <v>0.1157069413746132</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05349583490499593</v>
+        <v>0.05774592461013561</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>88</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1722326631.540424</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3358743811.303361</v>
+        <v>2640685371.277369</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1836696947609986</v>
+        <v>0.1614142965614309</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02565180130759522</v>
+        <v>0.03183424948903492</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>61</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1679371913.333093</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4273200569.112399</v>
+        <v>4048165383.256806</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1536294762836435</v>
+        <v>0.1040716719333006</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05024009705365692</v>
+        <v>0.03254752516362053</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>70</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2136600370.078206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3830398206.875018</v>
+        <v>3525942495.33788</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1472349156890154</v>
+        <v>0.1526712837687962</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02872178468973731</v>
+        <v>0.02964409142652992</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1915199070.826792</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1840628235.286283</v>
+        <v>1367859743.256446</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1280124087323305</v>
+        <v>0.142822493311004</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04571102119538305</v>
+        <v>0.05000602850980127</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>920314109.4123882</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3044302573.950369</v>
+        <v>3855240265.883236</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1790780695146729</v>
+        <v>0.1461097769387501</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01841932578728168</v>
+        <v>0.01765066290146423</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>68</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1522151295.082552</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1467508945.715569</v>
+        <v>1555546496.598505</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2001500571445445</v>
+        <v>0.1983543746448509</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03612293300213741</v>
+        <v>0.03773392396649403</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>733754506.9524091</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3986995783.51323</v>
+        <v>4702916043.039034</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1212051420549736</v>
+        <v>0.1115930584079923</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04991477565198037</v>
+        <v>0.0403796414734339</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>58</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1993497868.294782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3117770581.348223</v>
+        <v>2300906381.082502</v>
       </c>
       <c r="F60" t="n">
-        <v>0.182130662474012</v>
+        <v>0.1636009931059648</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0227230141847613</v>
+        <v>0.02179209257641701</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>69</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1558885373.358351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2116247156.233922</v>
+        <v>3079321068.720676</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1718462808293155</v>
+        <v>0.124000775350155</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02847801295881822</v>
+        <v>0.02541809033568381</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1058123641.907964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1771542788.648675</v>
+        <v>1698380231.135252</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1511456079819993</v>
+        <v>0.1750008284255682</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03805483843003379</v>
+        <v>0.03305087526373828</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>885771418.1168298</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4486485461.649958</v>
+        <v>3694674775.090629</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07840267033832522</v>
+        <v>0.09485903519535539</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03459423396689542</v>
+        <v>0.0327740807091245</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>60</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2243242771.478312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5065848701.573094</v>
+        <v>3503935644.235612</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1812043171599387</v>
+        <v>0.1411586482024986</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02901786017052511</v>
+        <v>0.03217082736779797</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>66</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2532924461.593033</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3726717755.963503</v>
+        <v>3810026658.177539</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1319817758998872</v>
+        <v>0.1123425344848754</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02505371538449521</v>
+        <v>0.02695202984122783</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>77</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1863358912.849592</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5650120742.238593</v>
+        <v>4243749328.145793</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1436130891199983</v>
+        <v>0.1520785764223291</v>
       </c>
       <c r="G66" t="n">
-        <v>0.044288604632371</v>
+        <v>0.03579306362171704</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>62</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2825060433.082649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3059463360.444005</v>
+        <v>3364826703.668216</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1009724328060286</v>
+        <v>0.06965176590547546</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03266030512474867</v>
+        <v>0.03134690569196765</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>68</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1529731693.402485</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3870236580.95355</v>
+        <v>6088526460.513624</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1333411836009834</v>
+        <v>0.1477455487249625</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03644697679076617</v>
+        <v>0.0389497392665679</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1935118278.383642</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1950293293.600524</v>
+        <v>2157520820.577416</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1219787367315224</v>
+        <v>0.1519892311191628</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0598427284829885</v>
+        <v>0.05402711762129227</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>975146645.2888204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3116777548.966454</v>
+        <v>2437188827.163161</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08814123496759163</v>
+        <v>0.09620734648883113</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03879366894391664</v>
+        <v>0.04442678864512858</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>61</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1558388759.065953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3563376137.267282</v>
+        <v>5148682000.314873</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1511661819307275</v>
+        <v>0.1614961908224599</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02951045306537145</v>
+        <v>0.03122221317383016</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>78</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1781688067.100933</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1832994298.107258</v>
+        <v>1490798598.358494</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06896257234555546</v>
+        <v>0.07225546957488464</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03977639263457319</v>
+        <v>0.05185220438885323</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>916497122.3146482</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2958716731.095088</v>
+        <v>3207177692.033508</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07471814307722377</v>
+        <v>0.08370052235250641</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03689910467080692</v>
+        <v>0.04624721124696388</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>81</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1479358365.303445</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2433449702.989438</v>
+        <v>2969871109.002158</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1802924398682202</v>
+        <v>0.1795887459304916</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02984399545053357</v>
+        <v>0.02663647387240841</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>73</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1216724965.877644</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2331978621.658161</v>
+        <v>1514788686.329829</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1408270360054863</v>
+        <v>0.1109588150762204</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03652608154104908</v>
+        <v>0.02353076763701183</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1165989243.933268</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4139586699.057654</v>
+        <v>5039763218.152386</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1105230458762506</v>
+        <v>0.1093787391272335</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02863631207916317</v>
+        <v>0.02875220546435785</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2069793340.107704</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1823690000.558778</v>
+        <v>1493677855.352193</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1580911528209972</v>
+        <v>0.1451040452988868</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02188188731402999</v>
+        <v>0.02636048333567857</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>911845035.7250834</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4587535342.916207</v>
+        <v>3364940705.720748</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1298165287757744</v>
+        <v>0.1330025869484025</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04268539590665868</v>
+        <v>0.04593477135841711</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>74</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2293767595.121862</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1553446711.742052</v>
+        <v>1574808998.486635</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1643593600354254</v>
+        <v>0.1233216314513699</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03987895634215381</v>
+        <v>0.03681376019559791</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>776723399.4213257</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3633133468.518137</v>
+        <v>3536189937.364449</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08153120923336533</v>
+        <v>0.09981915250650886</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03517065734480344</v>
+        <v>0.02475395618147402</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>44</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1816566715.454717</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4700053527.148383</v>
+        <v>3588695091.303862</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1357063308219674</v>
+        <v>0.1249130544873204</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02643471333037975</v>
+        <v>0.02513204561298396</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>48</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2350026752.736819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5411524186.898106</v>
+        <v>4304183774.903675</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2003380864690583</v>
+        <v>0.1772008793486931</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02559225318364576</v>
+        <v>0.0217826579328234</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2705762054.410904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2222205342.134457</v>
+        <v>1603826653.97101</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1020322388426235</v>
+        <v>0.1429007470761979</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04035951722027227</v>
+        <v>0.03087157757329565</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1111102683.979453</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1802409648.206219</v>
+        <v>1921215971.741364</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08691891975095081</v>
+        <v>0.1118323419509717</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04929421533524456</v>
+        <v>0.03480200900291763</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>901204858.0087065</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3364276285.407449</v>
+        <v>2504524225.519817</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1546306779556013</v>
+        <v>0.1676021929862131</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04963750480427992</v>
+        <v>0.04411078429496573</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>80</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1682138243.074577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2352632143.772328</v>
+        <v>2180138403.861609</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1614738526926316</v>
+        <v>0.1665411828594619</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01930791275073286</v>
+        <v>0.0207684729963964</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1176316148.545013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1216445481.04826</v>
+        <v>1352045764.711275</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1543189932501839</v>
+        <v>0.1809034747748655</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03645176375025675</v>
+        <v>0.03550965286727636</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>608222800.321472</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3154482856.568125</v>
+        <v>2549218078.31455</v>
       </c>
       <c r="F88" t="n">
-        <v>0.149883792101811</v>
+        <v>0.1416210321825635</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03084129641633029</v>
+        <v>0.03512962498664659</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>83</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1577241473.981012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2887357678.09392</v>
+        <v>2242164103.100282</v>
       </c>
       <c r="F89" t="n">
-        <v>0.108147314844054</v>
+        <v>0.1227933656990047</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02668235563223606</v>
+        <v>0.02938379391892069</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>74</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1443678885.392143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1805104056.346804</v>
+        <v>2085926693.382783</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09853589015852247</v>
+        <v>0.1365519679307277</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04351576914795092</v>
+        <v>0.04930331075939922</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>902552062.7293856</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2055726325.729596</v>
+        <v>1401974794.615806</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1199966519162486</v>
+        <v>0.181922605615553</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0420710940320894</v>
+        <v>0.05220645195944063</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1027863127.694266</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2167320840.747233</v>
+        <v>2947024141.240912</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1088191770113191</v>
+        <v>0.08835524180711631</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03624899731697351</v>
+        <v>0.03621358131917522</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>55</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1083660379.157295</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3225829489.778068</v>
+        <v>3358898405.527994</v>
       </c>
       <c r="F93" t="n">
-        <v>0.105861599192914</v>
+        <v>0.08687059827242739</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05312209710434599</v>
+        <v>0.03404185614724293</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>63</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1612914795.544562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2073952685.24008</v>
+        <v>1609888594.546918</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1301345140517346</v>
+        <v>0.1039524443843978</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03390483042969551</v>
+        <v>0.03959403368974164</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1036976350.632814</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2546985380.167358</v>
+        <v>2136070941.725838</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09279547189908068</v>
+        <v>0.09088793749480124</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04201820242610657</v>
+        <v>0.03452563257667783</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>52</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1273492722.736315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2003091732.982858</v>
+        <v>2134440639.050434</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1059784354053935</v>
+        <v>0.1270678843028887</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03441274394340955</v>
+        <v>0.04206310341640097</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1001545853.119592</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4525753606.748236</v>
+        <v>4766304940.073695</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1315700753245031</v>
+        <v>0.1431757740354764</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0289374524028211</v>
+        <v>0.02453598851111031</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2262876902.013487</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3933453636.627414</v>
+        <v>2411405465.254673</v>
       </c>
       <c r="F98" t="n">
-        <v>0.086694682568438</v>
+        <v>0.0839039325359624</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0316233455584054</v>
+        <v>0.02701522782102596</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>56</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1966726866.325352</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2934514137.774944</v>
+        <v>2683662213.513118</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1469856775233918</v>
+        <v>0.09237963360750343</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02149070673954255</v>
+        <v>0.03141933382770126</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>66</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1467257050.083483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3934649078.831012</v>
+        <v>4319095706.149757</v>
       </c>
       <c r="F100" t="n">
-        <v>0.138058571755363</v>
+        <v>0.1107317258955448</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02216732157070731</v>
+        <v>0.01888152788062752</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1967324604.856043</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2218316698.901399</v>
+        <v>2661455041.976333</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1783169046942878</v>
+        <v>0.1432027047859366</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05150970751401855</v>
+        <v>0.03816491488266118</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>87</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1109158335.227618</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_213.xlsx
+++ b/output/fit_clients/fit_round_213.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2317448104.041939</v>
+        <v>1838066272.191113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1019154262769736</v>
+        <v>0.101059058355995</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04333736191102236</v>
+        <v>0.0323625100171737</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2274940550.770248</v>
+        <v>1870736932.213132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1200378803809639</v>
+        <v>0.1212253781525505</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04764997078607291</v>
+        <v>0.04301084349739706</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3584252582.793033</v>
+        <v>4691389851.430804</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1252530884655031</v>
+        <v>0.1455509497443028</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0350020534678311</v>
+        <v>0.03487475992398201</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2770606257.080306</v>
+        <v>3798096932.994001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07723114129267332</v>
+        <v>0.094367908057194</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03256827449305625</v>
+        <v>0.03423216488993731</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1883014613.524176</v>
+        <v>1777451473.811935</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1035941793220307</v>
+        <v>0.09433804603958693</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03743442966934531</v>
+        <v>0.04500765616005432</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1907843412.206813</v>
+        <v>2307271503.983615</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07435685170222672</v>
+        <v>0.08051246994214338</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04499646123555732</v>
+        <v>0.03619284535869516</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3246713185.412525</v>
+        <v>2713157743.814261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1388280792852801</v>
+        <v>0.1579277141224347</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02224202011583973</v>
+        <v>0.03045764581292498</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1961826568.637189</v>
+        <v>1644339611.973922</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1242598469997503</v>
+        <v>0.1778567973001932</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03495039331589231</v>
+        <v>0.02609988085856803</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5519058418.078609</v>
+        <v>4271736012.921734</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1587837562423945</v>
+        <v>0.2147856541596612</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04719120710731774</v>
+        <v>0.04052171106084219</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3369902291.611948</v>
+        <v>3473789293.763769</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1488236874672325</v>
+        <v>0.1655762505261532</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03177644919689847</v>
+        <v>0.04862810725959811</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2232846842.993271</v>
+        <v>2240762649.521665</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1586001594422499</v>
+        <v>0.1227577205261394</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04458389775921979</v>
+        <v>0.03831414076218143</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3363472651.997658</v>
+        <v>4963201930.534652</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06550737129336856</v>
+        <v>0.08390164063564703</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02653755557828554</v>
+        <v>0.02780891346964294</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3595957348.802158</v>
+        <v>2837476644.822894</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1294887240533689</v>
+        <v>0.1274810710303723</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03044809250232752</v>
+        <v>0.03858195996401564</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1595356801.619596</v>
+        <v>1140979740.270994</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08169706802672556</v>
+        <v>0.09102501208220977</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03270650513635365</v>
+        <v>0.04853961082991234</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2218535260.229024</v>
+        <v>2633948796.190958</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08075925166154928</v>
+        <v>0.08756954389969561</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04531405835963224</v>
+        <v>0.05007390660336301</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4156842948.771364</v>
+        <v>4900511734.82328</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1496840431295834</v>
+        <v>0.113045478095888</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03919327227521278</v>
+        <v>0.0428978225073512</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3306909285.765926</v>
+        <v>3185171050.5581</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1711168095128864</v>
+        <v>0.1354741918934734</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02153711333731615</v>
+        <v>0.02642787673998227</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1069877659.299065</v>
+        <v>917097321.6509484</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1226168172472645</v>
+        <v>0.1465816707817039</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02342397748604452</v>
+        <v>0.02174245976105466</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2362363844.837187</v>
+        <v>1993995901.613165</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1438962461250057</v>
+        <v>0.1288319052907466</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02295429316274454</v>
+        <v>0.02805324575414127</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2213622688.298814</v>
+        <v>1791597181.849827</v>
       </c>
       <c r="F21" t="n">
-        <v>0.069891011000018</v>
+        <v>0.08346847742037168</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03688940573123428</v>
+        <v>0.0317043051237502</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3907461670.855097</v>
+        <v>2463441195.101491</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1414704728227744</v>
+        <v>0.1045263587547656</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04260943599401695</v>
+        <v>0.05001347347296299</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>951109965.841123</v>
+        <v>1121818964.194676</v>
       </c>
       <c r="F23" t="n">
-        <v>0.166568414110001</v>
+        <v>0.1836402391646309</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03532353496108395</v>
+        <v>0.05056627133981099</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2637324947.007793</v>
+        <v>3061243264.231239</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1248908670045584</v>
+        <v>0.0939903090548847</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03406367626149546</v>
+        <v>0.02649144249860828</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1304967605.531562</v>
+        <v>908605414.4533564</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1075956253344987</v>
+        <v>0.1148715729120387</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02979383635256997</v>
+        <v>0.02054927523519566</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1108705324.945219</v>
+        <v>892252559.545583</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07666387397621598</v>
+        <v>0.1034745442101323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0276310582397299</v>
+        <v>0.03573139238210946</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3974012056.609574</v>
+        <v>3905715802.271456</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1407879348517264</v>
+        <v>0.09864679888183488</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01852360448046495</v>
+        <v>0.02460294617517785</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2748470520.043496</v>
+        <v>2880009615.377713</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1459354623459992</v>
+        <v>0.1316757714493693</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03128847662603312</v>
+        <v>0.03558050583590962</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5817243805.988102</v>
+        <v>4735144434.231783</v>
       </c>
       <c r="F29" t="n">
-        <v>0.14079052633625</v>
+        <v>0.1208239633123914</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03654596745562963</v>
+        <v>0.03959448961923212</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2410720409.841602</v>
+        <v>1551907957.701514</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1119814763757332</v>
+        <v>0.1394740921169733</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0321660126732217</v>
+        <v>0.0270539546085931</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1250163055.76815</v>
+        <v>1321779631.427358</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1103364673689605</v>
+        <v>0.0920555204101383</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03691623015703416</v>
+        <v>0.04934225356683772</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1457136796.445242</v>
+        <v>1353438859.250829</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09529034839995965</v>
+        <v>0.1120402589639691</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02393372791286958</v>
+        <v>0.03611138921553264</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2031595981.201413</v>
+        <v>1913785658.77433</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1625205825171608</v>
+        <v>0.1711880155795857</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05971126466343829</v>
+        <v>0.04582883133035123</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1392881286.573029</v>
+        <v>1267083414.221185</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1160246378877984</v>
+        <v>0.09232804085180524</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01861368669367966</v>
+        <v>0.024658218811969</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>836985981.6999599</v>
+        <v>933989993.0704582</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09414906857323825</v>
+        <v>0.08896498333886307</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04097986504667371</v>
+        <v>0.04283399398313995</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2394586284.540593</v>
+        <v>2190874993.827416</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1586194137458367</v>
+        <v>0.1534379766697905</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02210468281832212</v>
+        <v>0.02328034505118429</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2125991565.921664</v>
+        <v>2197614399.407336</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08028271011352218</v>
+        <v>0.09161904900237035</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0259611164676357</v>
+        <v>0.03608321912603897</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1515111037.463545</v>
+        <v>2119064508.018684</v>
       </c>
       <c r="F38" t="n">
-        <v>0.108828168092696</v>
+        <v>0.1091459309361804</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03844613938460207</v>
+        <v>0.0301716228988007</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1538343353.691554</v>
+        <v>2147740217.857181</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1797162857887148</v>
+        <v>0.1321998860974944</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03055402066648114</v>
+        <v>0.02688180912495316</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1574000027.547935</v>
+        <v>1532389475.705074</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1017176276447046</v>
+        <v>0.1490559133705938</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06012001947848634</v>
+        <v>0.05423563786170681</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2923312806.843043</v>
+        <v>2202843606.568152</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1466331799077553</v>
+        <v>0.1403849520386854</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04596090948757971</v>
+        <v>0.04164136822621466</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2978274114.777574</v>
+        <v>4268773622.892602</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1092684768937892</v>
+        <v>0.09244331722004673</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03048845509809721</v>
+        <v>0.03835943065568243</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2491284514.765934</v>
+        <v>2205420663.487017</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1902081332657927</v>
+        <v>0.1372795815855232</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01999236354903155</v>
+        <v>0.02408750733067</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1508353948.915883</v>
+        <v>2222742155.004227</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07572102294090728</v>
+        <v>0.06249474739156393</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03184495226768886</v>
+        <v>0.02428287618517209</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2184380243.199901</v>
+        <v>2331089390.99746</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1542807308756263</v>
+        <v>0.1893751803819136</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03881127553345486</v>
+        <v>0.05145645686348563</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5425965077.17785</v>
+        <v>5121767582.062892</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1353144559922117</v>
+        <v>0.1260990045868175</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0396768592475408</v>
+        <v>0.06077151030893632</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3773645180.977235</v>
+        <v>5182492784.584637</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1351173888769569</v>
+        <v>0.127737221564222</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05169853760380457</v>
+        <v>0.05218863261564371</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4233624826.228646</v>
+        <v>3014145570.334652</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08837597723314224</v>
+        <v>0.07234459761467536</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03786930006143829</v>
+        <v>0.03658370084935615</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1263965361.223938</v>
+        <v>1638632907.288937</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1296542664596444</v>
+        <v>0.1913531034189141</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03688943216129102</v>
+        <v>0.03097924927174162</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3913542358.167104</v>
+        <v>2915265415.399463</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1571413075734851</v>
+        <v>0.1540689849800403</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04035197801278338</v>
+        <v>0.04222308324781643</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1475811584.089777</v>
+        <v>1377931822.708532</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1537820116658127</v>
+        <v>0.1956445390379348</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04167803506428661</v>
+        <v>0.04894351052282832</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3538853176.039019</v>
+        <v>3957430696.799102</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1157069413746132</v>
+        <v>0.1350937838976825</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05774592461013561</v>
+        <v>0.0497596683440673</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2640685371.277369</v>
+        <v>3176587651.956656</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1614142965614309</v>
+        <v>0.1491487055956126</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03183424948903492</v>
+        <v>0.03407906256327971</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4048165383.256806</v>
+        <v>4919468045.893141</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1040716719333006</v>
+        <v>0.1576280515602853</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03254752516362053</v>
+        <v>0.03901560058392652</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3525942495.33788</v>
+        <v>4031082536.361201</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1526712837687962</v>
+        <v>0.1403427020945155</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02964409142652992</v>
+        <v>0.01958965016127323</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1367859743.256446</v>
+        <v>1880424734.25179</v>
       </c>
       <c r="F56" t="n">
-        <v>0.142822493311004</v>
+        <v>0.1001241338700231</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05000602850980127</v>
+        <v>0.05801068342358358</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3855240265.883236</v>
+        <v>3987856948.101908</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1461097769387501</v>
+        <v>0.1303536996621581</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01765066290146423</v>
+        <v>0.02313830758164314</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1555546496.598505</v>
+        <v>1607077956.979255</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1983543746448509</v>
+        <v>0.1717318472481806</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03773392396649403</v>
+        <v>0.02509370024172151</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4702916043.039034</v>
+        <v>4970173479.547722</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1115930584079923</v>
+        <v>0.08793735159051751</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0403796414734339</v>
+        <v>0.04489909016482997</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2300906381.082502</v>
+        <v>3503109157.486834</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1636009931059648</v>
+        <v>0.1902886326770436</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02179209257641701</v>
+        <v>0.02448228241964633</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3079321068.720676</v>
+        <v>2119238515.754604</v>
       </c>
       <c r="F61" t="n">
-        <v>0.124000775350155</v>
+        <v>0.1154142365343898</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02541809033568381</v>
+        <v>0.02351663262718195</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1698380231.135252</v>
+        <v>1486191205.424501</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1750008284255682</v>
+        <v>0.1400315792625748</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03305087526373828</v>
+        <v>0.04828308664168746</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3694674775.090629</v>
+        <v>3947124083.147641</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09485903519535539</v>
+        <v>0.1040727335118982</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0327740807091245</v>
+        <v>0.03613792622869629</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3503935644.235612</v>
+        <v>4501759407.960234</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1411586482024986</v>
+        <v>0.1514457628200056</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03217082736779797</v>
+        <v>0.02546937961969845</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3810026658.177539</v>
+        <v>5804105008.441246</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1123425344848754</v>
+        <v>0.1600566718201901</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02695202984122783</v>
+        <v>0.02692001000901803</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4243749328.145793</v>
+        <v>5652236862.434192</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1520785764223291</v>
+        <v>0.118074184108544</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03579306362171704</v>
+        <v>0.0493654640486197</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3364826703.668216</v>
+        <v>3159212700.966997</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06965176590547546</v>
+        <v>0.06579045336111058</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03134690569196765</v>
+        <v>0.03585702387393001</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6088526460.513624</v>
+        <v>4566752831.226357</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1477455487249625</v>
+        <v>0.1535808616151403</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0389497392665679</v>
+        <v>0.04174325955481832</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2157520820.577416</v>
+        <v>2458617960.519091</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1519892311191628</v>
+        <v>0.1743318539890261</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05402711762129227</v>
+        <v>0.03679882448854026</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2437188827.163161</v>
+        <v>2774188625.120319</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09620734648883113</v>
+        <v>0.09949235119694262</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04442678864512858</v>
+        <v>0.04360469751013978</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5148682000.314873</v>
+        <v>4440056789.844076</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1614961908224599</v>
+        <v>0.1510161041360124</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03122221317383016</v>
+        <v>0.03154587523033914</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1490798598.358494</v>
+        <v>1375143534.869862</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07225546957488464</v>
+        <v>0.09095270672536276</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05185220438885323</v>
+        <v>0.03612835939922744</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3207177692.033508</v>
+        <v>3245559659.527844</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08370052235250641</v>
+        <v>0.1089444045805075</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04624721124696388</v>
+        <v>0.04052498770673756</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2969871109.002158</v>
+        <v>3630517304.778915</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1795887459304916</v>
+        <v>0.1577564222687781</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02663647387240841</v>
+        <v>0.02805757697533598</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1514788686.329829</v>
+        <v>2279153900.077719</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1109588150762204</v>
+        <v>0.1463026826236765</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02353076763701183</v>
+        <v>0.03200216115955372</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5039763218.152386</v>
+        <v>4707863741.942436</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1093787391272335</v>
+        <v>0.08845444154275575</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02875220546435785</v>
+        <v>0.02247884911283421</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1493677855.352193</v>
+        <v>1663123721.448782</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1451040452988868</v>
+        <v>0.1670123369574213</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02636048333567857</v>
+        <v>0.02744130357212558</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3364940705.720748</v>
+        <v>3412212506.915679</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1330025869484025</v>
+        <v>0.09917781366456967</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04593477135841711</v>
+        <v>0.05569453622830209</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1574808998.486635</v>
+        <v>1214562451.849145</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1233216314513699</v>
+        <v>0.1463259077323352</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03681376019559791</v>
+        <v>0.02755982699809189</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3536189937.364449</v>
+        <v>3469082293.502939</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09981915250650886</v>
+        <v>0.08000811877117031</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02475395618147402</v>
+        <v>0.03833989318422122</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3588695091.303862</v>
+        <v>4658105882.139867</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1249130544873204</v>
+        <v>0.109728325727288</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02513204561298396</v>
+        <v>0.02686729218765812</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4304183774.903675</v>
+        <v>5702567907.913233</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1772008793486931</v>
+        <v>0.1772454119163107</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0217826579328234</v>
+        <v>0.02808552301140376</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1603826653.97101</v>
+        <v>1951436782.510197</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1429007470761979</v>
+        <v>0.1567513419380299</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03087157757329565</v>
+        <v>0.03782853027560543</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1921215971.741364</v>
+        <v>2123531778.889771</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1118323419509717</v>
+        <v>0.1088501479921102</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03480200900291763</v>
+        <v>0.03636582580341318</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2504524225.519817</v>
+        <v>2996708562.127566</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1676021929862131</v>
+        <v>0.1796552705840073</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04411078429496573</v>
+        <v>0.0341927382820888</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2180138403.861609</v>
+        <v>2718854513.733963</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1665411828594619</v>
+        <v>0.1382085984968886</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0207684729963964</v>
+        <v>0.01946003496266608</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1352045764.711275</v>
+        <v>1397912547.936621</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1809034747748655</v>
+        <v>0.1543158564718911</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03550965286727636</v>
+        <v>0.03073279570878739</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2549218078.31455</v>
+        <v>2595060877.276048</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1416210321825635</v>
+        <v>0.1741540641379632</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03512962498664659</v>
+        <v>0.02719879107197882</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2242164103.100282</v>
+        <v>2312888625.14959</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1227933656990047</v>
+        <v>0.1436667844465965</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02938379391892069</v>
+        <v>0.03324631757992383</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2085926693.382783</v>
+        <v>1948419449.727302</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1365519679307277</v>
+        <v>0.1095249959769284</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04930331075939922</v>
+        <v>0.04405101725467087</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1401974794.615806</v>
+        <v>1353172277.901339</v>
       </c>
       <c r="F91" t="n">
-        <v>0.181922605615553</v>
+        <v>0.1774549300379729</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05220645195944063</v>
+        <v>0.059387906401871</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2947024141.240912</v>
+        <v>2702456055.043024</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08835524180711631</v>
+        <v>0.06775568853025961</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03621358131917522</v>
+        <v>0.03502190217281283</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3358898405.527994</v>
+        <v>4442017375.326879</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08687059827242739</v>
+        <v>0.1236171034744928</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03404185614724293</v>
+        <v>0.04628041907137095</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1609888594.546918</v>
+        <v>2287803176.020312</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1039524443843978</v>
+        <v>0.1348218091974627</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03959403368974164</v>
+        <v>0.0422647240050703</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2136070941.725838</v>
+        <v>3181229302.43617</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09088793749480124</v>
+        <v>0.1056724229910326</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03452563257667783</v>
+        <v>0.03331281265577426</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2134440639.050434</v>
+        <v>2184636126.516743</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1270678843028887</v>
+        <v>0.08925185028281131</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04206310341640097</v>
+        <v>0.0412850029695737</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4766304940.073695</v>
+        <v>4521628110.279316</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1431757740354764</v>
+        <v>0.1695972219795004</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02453598851111031</v>
+        <v>0.02485590522577535</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2411405465.254673</v>
+        <v>3431713417.268152</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0839039325359624</v>
+        <v>0.1093118531611823</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02701522782102596</v>
+        <v>0.02452866352408224</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2683662213.513118</v>
+        <v>2180718944.03037</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09237963360750343</v>
+        <v>0.1337261505134459</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03141933382770126</v>
+        <v>0.03362826013369575</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4319095706.149757</v>
+        <v>3375537502.595342</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1107317258955448</v>
+        <v>0.1511987143808181</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01888152788062752</v>
+        <v>0.02657190144765924</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2661455041.976333</v>
+        <v>2678465966.520353</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1432027047859366</v>
+        <v>0.1928113763730936</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03816491488266118</v>
+        <v>0.04312788337126931</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_213.xlsx
+++ b/output/fit_clients/fit_round_213.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1838066272.191113</v>
+        <v>2020945695.256848</v>
       </c>
       <c r="F2" t="n">
-        <v>0.101059058355995</v>
+        <v>0.09011511156598941</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0323625100171737</v>
+        <v>0.02885650047775879</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1870736932.213132</v>
+        <v>2123278712.591099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1212253781525505</v>
+        <v>0.1666742213400101</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04301084349739706</v>
+        <v>0.0421168600381772</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4691389851.430804</v>
+        <v>4663448148.411674</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1455509497443028</v>
+        <v>0.1471805359376769</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03487475992398201</v>
+        <v>0.02750985449396679</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>116</v>
+      </c>
+      <c r="J4" t="n">
+        <v>213</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3798096932.994001</v>
+        <v>3563515128.841776</v>
       </c>
       <c r="F5" t="n">
-        <v>0.094367908057194</v>
+        <v>0.1016446510389852</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03423216488993731</v>
+        <v>0.05000867951496588</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>212</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100.5449225944111</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1777451473.811935</v>
+        <v>2553874557.513337</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09433804603958693</v>
+        <v>0.1320603211250163</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04500765616005432</v>
+        <v>0.03526125588831574</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2307271503.983615</v>
+        <v>1935790200.818752</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08051246994214338</v>
+        <v>0.07359602705426527</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03619284535869516</v>
+        <v>0.03730548382270669</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2713157743.814261</v>
+        <v>3642844230.552219</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1579277141224347</v>
+        <v>0.2117868552606394</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03045764581292498</v>
+        <v>0.02273708728129264</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>60</v>
+      </c>
+      <c r="J8" t="n">
+        <v>212</v>
+      </c>
+      <c r="K8" t="n">
+        <v>91.92193433563955</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1644339611.973922</v>
+        <v>2284012030.122219</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1778567973001932</v>
+        <v>0.1891295756478338</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02609988085856803</v>
+        <v>0.02801574149000837</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4271736012.921734</v>
+        <v>4319596313.315694</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2147856541596612</v>
+        <v>0.2004511182427034</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04052171106084219</v>
+        <v>0.04065664604794977</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>194</v>
+      </c>
+      <c r="J10" t="n">
+        <v>213</v>
+      </c>
+      <c r="K10" t="n">
+        <v>124.1941905462939</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3473789293.763769</v>
+        <v>2785883735.264379</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1655762505261532</v>
+        <v>0.1319235727855267</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04862810725959811</v>
+        <v>0.044214403816401</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>89</v>
+      </c>
+      <c r="J11" t="n">
+        <v>211</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2240762649.521665</v>
+        <v>2973695665.159401</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1227577205261394</v>
+        <v>0.1280370454760492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03831414076218143</v>
+        <v>0.04356833869270073</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4963201930.534652</v>
+        <v>4477177370.756867</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08390164063564703</v>
+        <v>0.0938375037737198</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02780891346964294</v>
+        <v>0.02137728251145617</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>106</v>
+      </c>
+      <c r="J13" t="n">
+        <v>213</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2837476644.822894</v>
+        <v>2877650813.535152</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1274810710303723</v>
+        <v>0.1644661508297869</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03858195996401564</v>
+        <v>0.02844984466966966</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>212</v>
+      </c>
+      <c r="K14" t="n">
+        <v>58.27581416780836</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1140979740.270994</v>
+        <v>1785051069.328587</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09102501208220977</v>
+        <v>0.08972922812216605</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04853961082991234</v>
+        <v>0.03285565908163537</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2633948796.190958</v>
+        <v>1827009559.274746</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08756954389969561</v>
+        <v>0.07409461612960321</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05007390660336301</v>
+        <v>0.04174891008709336</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4900511734.82328</v>
+        <v>5031985731.875554</v>
       </c>
       <c r="F17" t="n">
-        <v>0.113045478095888</v>
+        <v>0.1170346720464589</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0428978225073512</v>
+        <v>0.04179317363189654</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>102</v>
+      </c>
+      <c r="J17" t="n">
+        <v>213</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3185171050.5581</v>
+        <v>3253612341.016174</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1354741918934734</v>
+        <v>0.1514855667945331</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02642787673998227</v>
+        <v>0.02861231875228421</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>55</v>
+      </c>
+      <c r="J18" t="n">
+        <v>212</v>
+      </c>
+      <c r="K18" t="n">
+        <v>73.6375285235066</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>917097321.6509484</v>
+        <v>1096326847.92683</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1465816707817039</v>
+        <v>0.1280460845590143</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02174245976105466</v>
+        <v>0.0227749390784617</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1993995901.613165</v>
+        <v>2505646212.194669</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1288319052907466</v>
+        <v>0.1121674144797949</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02805324575414127</v>
+        <v>0.02306386089599768</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1791597181.849827</v>
+        <v>2087219676.715513</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08346847742037168</v>
+        <v>0.07519705690654829</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0317043051237502</v>
+        <v>0.03028849160766005</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2463441195.101491</v>
+        <v>3481512024.152129</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1045263587547656</v>
+        <v>0.119121107470494</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05001347347296299</v>
+        <v>0.03816272139458757</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>54</v>
+      </c>
+      <c r="J22" t="n">
+        <v>213</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1121818964.194676</v>
+        <v>1473585652.785505</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1836402391646309</v>
+        <v>0.1693199432673044</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05056627133981099</v>
+        <v>0.04446854867508505</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3061243264.231239</v>
+        <v>3693586561.075728</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0939903090548847</v>
+        <v>0.1117351851129321</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02649144249860828</v>
+        <v>0.03607941769860613</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>66</v>
+      </c>
+      <c r="J24" t="n">
+        <v>213</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>908605414.4533564</v>
+        <v>1352216990.561446</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1148715729120387</v>
+        <v>0.1075306946499555</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02054927523519566</v>
+        <v>0.02738505864435559</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>892252559.545583</v>
+        <v>998310060.4829288</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1034745442101323</v>
+        <v>0.1040064020637665</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03573139238210946</v>
+        <v>0.02957042469758599</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3905715802.271456</v>
+        <v>4697083883.571986</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09864679888183488</v>
+        <v>0.1352813181282499</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02460294617517785</v>
+        <v>0.01667630868376469</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>84</v>
+      </c>
+      <c r="J27" t="n">
+        <v>213</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2880009615.377713</v>
+        <v>3403535052.306906</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1316757714493693</v>
+        <v>0.1241091335187307</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03558050583590962</v>
+        <v>0.043044520162179</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4735144434.231783</v>
+        <v>4575694446.439551</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1208239633123914</v>
+        <v>0.1485476523100526</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03959448961923212</v>
+        <v>0.03797531839743497</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>202</v>
+      </c>
+      <c r="J29" t="n">
+        <v>213</v>
+      </c>
+      <c r="K29" t="n">
+        <v>129.7231303475762</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1551907957.701514</v>
+        <v>2375607372.089683</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1394740921169733</v>
+        <v>0.1061232337988263</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0270539546085931</v>
+        <v>0.02702166666805365</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1321779631.427358</v>
+        <v>1480407163.876476</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0920555204101383</v>
+        <v>0.0776434896716003</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04934225356683772</v>
+        <v>0.04526900167604774</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1353438859.250829</v>
+        <v>1341646445.17285</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1120402589639691</v>
+        <v>0.09609691624319763</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03611138921553264</v>
+        <v>0.02395991775179554</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1913785658.77433</v>
+        <v>2340554013.67886</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1711880155795857</v>
+        <v>0.1326802271996987</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04582883133035123</v>
+        <v>0.03906230693291506</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1267083414.221185</v>
+        <v>1380716293.833329</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09232804085180524</v>
+        <v>0.1047784982772042</v>
       </c>
       <c r="G34" t="n">
-        <v>0.024658218811969</v>
+        <v>0.02735958964735685</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>933989993.0704582</v>
+        <v>989765815.4328036</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08896498333886307</v>
+        <v>0.09704945989295582</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04283399398313995</v>
+        <v>0.03073085445485364</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2190874993.827416</v>
+        <v>2665348930.700512</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1534379766697905</v>
+        <v>0.1654784625909197</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02328034505118429</v>
+        <v>0.02620781471198831</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2197614399.407336</v>
+        <v>2478822846.336233</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09161904900237035</v>
+        <v>0.0968841062930588</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03608321912603897</v>
+        <v>0.03769090977779585</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2119064508.018684</v>
+        <v>1436879101.079444</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1091459309361804</v>
+        <v>0.1223369975111352</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0301716228988007</v>
+        <v>0.03297745358016191</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2147740217.857181</v>
+        <v>1674782882.283204</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1321998860974944</v>
+        <v>0.1504022709151386</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02688180912495316</v>
+        <v>0.02034284346990128</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1532389475.705074</v>
+        <v>1296918782.270026</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1490559133705938</v>
+        <v>0.1290152252199994</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05423563786170681</v>
+        <v>0.05678067229983518</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2202843606.568152</v>
+        <v>1955541045.156466</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1403849520386854</v>
+        <v>0.1541129565393793</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04164136822621466</v>
+        <v>0.03503149592026492</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4268773622.892602</v>
+        <v>2641653000.67604</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09244331722004673</v>
+        <v>0.09757090548082589</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03835943065568243</v>
+        <v>0.04591837257527026</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>84</v>
+      </c>
+      <c r="J42" t="n">
+        <v>212</v>
+      </c>
+      <c r="K42" t="n">
+        <v>49.88072911966934</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2205420663.487017</v>
+        <v>2492596592.873604</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1372795815855232</v>
+        <v>0.1333000897612943</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02408750733067</v>
+        <v>0.01739463399914163</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2222742155.004227</v>
+        <v>2287854088.753358</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06249474739156393</v>
+        <v>0.09972734329439001</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02428287618517209</v>
+        <v>0.02821398873146492</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2331089390.99746</v>
+        <v>2463759101.83018</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1893751803819136</v>
+        <v>0.149739498566103</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05145645686348563</v>
+        <v>0.05331006603842389</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5121767582.062892</v>
+        <v>3609342296.243163</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1260990045868175</v>
+        <v>0.1669767324915971</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06077151030893632</v>
+        <v>0.05963472487593963</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>122</v>
+      </c>
+      <c r="J46" t="n">
+        <v>212</v>
+      </c>
+      <c r="K46" t="n">
+        <v>90.10081836536905</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5182492784.584637</v>
+        <v>3450989770.493073</v>
       </c>
       <c r="F47" t="n">
-        <v>0.127737221564222</v>
+        <v>0.1505247795285028</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05218863261564371</v>
+        <v>0.05036356025275687</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>95</v>
+      </c>
+      <c r="J47" t="n">
+        <v>213</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3014145570.334652</v>
+        <v>3597022992.344078</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07234459761467536</v>
+        <v>0.09373193153455935</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03658370084935615</v>
+        <v>0.03628975946584244</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>105</v>
+      </c>
+      <c r="J48" t="n">
+        <v>212</v>
+      </c>
+      <c r="K48" t="n">
+        <v>92.2197571109606</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1638632907.288937</v>
+        <v>1733636720.644604</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1913531034189141</v>
+        <v>0.1351331849042486</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03097924927174162</v>
+        <v>0.03909064746315099</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2915265415.399463</v>
+        <v>4089184506.382654</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1540689849800403</v>
+        <v>0.1312322100800263</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04222308324781643</v>
+        <v>0.03571049141374594</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>67</v>
+      </c>
+      <c r="J50" t="n">
+        <v>213</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1377931822.708532</v>
+        <v>1004884132.794969</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1956445390379348</v>
+        <v>0.1906603839479639</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04894351052282832</v>
+        <v>0.04225678362242185</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3957430696.799102</v>
+        <v>4938040519.232938</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1350937838976825</v>
+        <v>0.09674175246467633</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0497596683440673</v>
+        <v>0.03942769398605868</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>144</v>
+      </c>
+      <c r="J52" t="n">
+        <v>213</v>
+      </c>
+      <c r="K52" t="n">
+        <v>113.6896762662326</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3176587651.956656</v>
+        <v>2542537938.642599</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1491487055956126</v>
+        <v>0.1630178536737569</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03407906256327971</v>
+        <v>0.02728837653683303</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4919468045.893141</v>
+        <v>3774478269.119669</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1576280515602853</v>
+        <v>0.1310445460846033</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03901560058392652</v>
+        <v>0.05236529170668889</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>111</v>
+      </c>
+      <c r="J54" t="n">
+        <v>213</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4031082536.361201</v>
+        <v>4625713629.817326</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1403427020945155</v>
+        <v>0.1890670527285995</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01958965016127323</v>
+        <v>0.03150844447864346</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>95</v>
+      </c>
+      <c r="J55" t="n">
+        <v>213</v>
+      </c>
+      <c r="K55" t="n">
+        <v>113.0614639828737</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1880424734.25179</v>
+        <v>1683703489.617705</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1001241338700231</v>
+        <v>0.1196852885586084</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05801068342358358</v>
+        <v>0.04997812165031979</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3987856948.101908</v>
+        <v>2781620390.740438</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1303536996621581</v>
+        <v>0.1429532234125062</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02313830758164314</v>
+        <v>0.01772113314220706</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>83</v>
+      </c>
+      <c r="J57" t="n">
+        <v>210</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1607077956.979255</v>
+        <v>1667989983.894655</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1717318472481806</v>
+        <v>0.157541855699586</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02509370024172151</v>
+        <v>0.03821650768873714</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4970173479.547722</v>
+        <v>4095457166.710707</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08793735159051751</v>
+        <v>0.1035743354903504</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04489909016482997</v>
+        <v>0.03872279821826426</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>103</v>
+      </c>
+      <c r="J59" t="n">
+        <v>212</v>
+      </c>
+      <c r="K59" t="n">
+        <v>106.115449970449</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3503109157.486834</v>
+        <v>2737012222.577476</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1902886326770436</v>
+        <v>0.2036793174311289</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02448228241964633</v>
+        <v>0.02265901868701731</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>30</v>
+      </c>
+      <c r="J60" t="n">
+        <v>210</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2119238515.754604</v>
+        <v>2164875003.103437</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1154142365343898</v>
+        <v>0.1720741181132988</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02351663262718195</v>
+        <v>0.03026456460097371</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1486191205.424501</v>
+        <v>1866964880.973163</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1400315792625748</v>
+        <v>0.193214907947651</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04828308664168746</v>
+        <v>0.03225136491671986</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3947124083.147641</v>
+        <v>4223303428.403978</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1040727335118982</v>
+        <v>0.1060407666800602</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03613792622869629</v>
+        <v>0.02970184413672259</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>104</v>
+      </c>
+      <c r="J63" t="n">
+        <v>212</v>
+      </c>
+      <c r="K63" t="n">
+        <v>109.8043261229492</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4501759407.960234</v>
+        <v>5427596220.769369</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1514457628200056</v>
+        <v>0.1623865661118191</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02546937961969845</v>
+        <v>0.02762444127731229</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>105</v>
+      </c>
+      <c r="J64" t="n">
+        <v>212</v>
+      </c>
+      <c r="K64" t="n">
+        <v>109.6052332550057</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2734,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5804105008.441246</v>
+        <v>3905788070.832255</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1600566718201901</v>
+        <v>0.1307036719576413</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02692001000901803</v>
+        <v>0.02499818057191745</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>171</v>
+      </c>
+      <c r="J65" t="n">
+        <v>212</v>
+      </c>
+      <c r="K65" t="n">
+        <v>107.5684307588803</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5652236862.434192</v>
+        <v>5386848241.390849</v>
       </c>
       <c r="F66" t="n">
-        <v>0.118074184108544</v>
+        <v>0.1593341722424142</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0493654640486197</v>
+        <v>0.03326765530298918</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>105</v>
+      </c>
+      <c r="J66" t="n">
+        <v>212</v>
+      </c>
+      <c r="K66" t="n">
+        <v>104.2206451763023</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2808,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3159212700.966997</v>
+        <v>2357596103.477942</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06579045336111058</v>
+        <v>0.08628575988105408</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03585702387393001</v>
+        <v>0.05144046682362273</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2843,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4566752831.226357</v>
+        <v>4109231900.519971</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1535808616151403</v>
+        <v>0.1456810957561796</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04174325955481832</v>
+        <v>0.03284407611771226</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>107</v>
+      </c>
+      <c r="J68" t="n">
+        <v>213</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2458617960.519091</v>
+        <v>1533558471.689814</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1743318539890261</v>
+        <v>0.1592470966499451</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03679882448854026</v>
+        <v>0.04774155081899555</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2774188625.120319</v>
+        <v>2626929239.904956</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09949235119694262</v>
+        <v>0.07820299067904536</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04360469751013978</v>
+        <v>0.03605955534237779</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4440056789.844076</v>
+        <v>3676058578.448965</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1510161041360124</v>
+        <v>0.1749153320039155</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03154587523033914</v>
+        <v>0.02868687675058231</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>163</v>
+      </c>
+      <c r="J71" t="n">
+        <v>212</v>
+      </c>
+      <c r="K71" t="n">
+        <v>94.60647858893473</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1375143534.869862</v>
+        <v>1610666032.935389</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09095270672536276</v>
+        <v>0.08185254209016266</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03612835939922744</v>
+        <v>0.04897730518192167</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3245559659.527844</v>
+        <v>3007821068.779027</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1089444045805075</v>
+        <v>0.1013134480075872</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04052498770673756</v>
+        <v>0.03419298556033967</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3630517304.778915</v>
+        <v>2900973777.734377</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1577564222687781</v>
+        <v>0.1811177147865951</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02805757697533598</v>
+        <v>0.02167593562451431</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>62</v>
+      </c>
+      <c r="J74" t="n">
+        <v>208</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2279153900.077719</v>
+        <v>1818244219.692096</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1463026826236765</v>
+        <v>0.1426913003941064</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03200216115955372</v>
+        <v>0.02390530719734464</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4707863741.942436</v>
+        <v>5115320300.431012</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08845444154275575</v>
+        <v>0.07533968067256173</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02247884911283421</v>
+        <v>0.02589591105428882</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>98</v>
+      </c>
+      <c r="J76" t="n">
+        <v>212</v>
+      </c>
+      <c r="K76" t="n">
+        <v>101.1414858020279</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1663123721.448782</v>
+        <v>2069913497.202377</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1670123369574213</v>
+        <v>0.1727866339605281</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02744130357212558</v>
+        <v>0.02293397970579386</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3412212506.915679</v>
+        <v>3472269225.77527</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09917781366456967</v>
+        <v>0.1268839748996496</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05569453622830209</v>
+        <v>0.0510724327747752</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>106</v>
+      </c>
+      <c r="J78" t="n">
+        <v>213</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1214562451.849145</v>
+        <v>1635661945.232011</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1463259077323352</v>
+        <v>0.1370172066140939</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02755982699809189</v>
+        <v>0.0370412205177614</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3469082293.502939</v>
+        <v>4093014485.502785</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08000811877117031</v>
+        <v>0.09554170518900429</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03833989318422122</v>
+        <v>0.03581097813023149</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>103</v>
+      </c>
+      <c r="J80" t="n">
+        <v>213</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4658105882.139867</v>
+        <v>5053103932.484619</v>
       </c>
       <c r="F81" t="n">
-        <v>0.109728325727288</v>
+        <v>0.107332561763823</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02686729218765812</v>
+        <v>0.02927868033116707</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>98</v>
+      </c>
+      <c r="J81" t="n">
+        <v>212</v>
+      </c>
+      <c r="K81" t="n">
+        <v>99.62431599890712</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5702567907.913233</v>
+        <v>5048729197.615458</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1772454119163107</v>
+        <v>0.1704634536153685</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02808552301140376</v>
+        <v>0.0218129051637133</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>158</v>
+      </c>
+      <c r="J82" t="n">
+        <v>213</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1951436782.510197</v>
+        <v>2356495896.610229</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1567513419380299</v>
+        <v>0.09602905130107972</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03782853027560543</v>
+        <v>0.02903792559460921</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2123531778.889771</v>
+        <v>1672365002.498028</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1088501479921102</v>
+        <v>0.1083660355275753</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03636582580341318</v>
+        <v>0.05173661296250667</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2996708562.127566</v>
+        <v>3066020910.136186</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1796552705840073</v>
+        <v>0.1284802144252039</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0341927382820888</v>
+        <v>0.03740140251537415</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2718854513.733963</v>
+        <v>2205051867.497681</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1382085984968886</v>
+        <v>0.124090159543188</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01946003496266608</v>
+        <v>0.02616669102772155</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1397912547.936621</v>
+        <v>1297482810.830722</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1543158564718911</v>
+        <v>0.1150515044718697</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03073279570878739</v>
+        <v>0.03122357969728621</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2595060877.276048</v>
+        <v>2331930528.412081</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1741540641379632</v>
+        <v>0.1757637063716017</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02719879107197882</v>
+        <v>0.03876024160036523</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>30</v>
+      </c>
+      <c r="J88" t="n">
+        <v>209</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2312888625.14959</v>
+        <v>3407865223.386024</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1436667844465965</v>
+        <v>0.1199341383626869</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03324631757992383</v>
+        <v>0.03237936434776998</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1948419449.727302</v>
+        <v>2023677433.097272</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1095249959769284</v>
+        <v>0.0947673428595131</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04405101725467087</v>
+        <v>0.04156146453264146</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1353172277.901339</v>
+        <v>1883089782.141442</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1774549300379729</v>
+        <v>0.1300598142477065</v>
       </c>
       <c r="G91" t="n">
-        <v>0.059387906401871</v>
+        <v>0.05809083524439364</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2702456055.043024</v>
+        <v>2342570762.011476</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06775568853025961</v>
+        <v>0.09461827388747786</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03502190217281283</v>
+        <v>0.03513527711683534</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4442017375.326879</v>
+        <v>5020977878.054574</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1236171034744928</v>
+        <v>0.1238844727664542</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04628041907137095</v>
+        <v>0.0365790975114327</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>95</v>
+      </c>
+      <c r="J93" t="n">
+        <v>213</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2287803176.020312</v>
+        <v>1772644599.338454</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1348218091974627</v>
+        <v>0.1296979864695084</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0422647240050703</v>
+        <v>0.04059849436820429</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3181229302.43617</v>
+        <v>2634087158.830171</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1056724229910326</v>
+        <v>0.105447853402431</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03331281265577426</v>
+        <v>0.0414007211853561</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2184636126.516743</v>
+        <v>2208643545.740739</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08925185028281131</v>
+        <v>0.09239221206151416</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0412850029695737</v>
+        <v>0.04460524632538219</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4521628110.279316</v>
+        <v>5242638241.424786</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1695972219795004</v>
+        <v>0.1495836260069396</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02485590522577535</v>
+        <v>0.02634572183922007</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>102</v>
+      </c>
+      <c r="J97" t="n">
+        <v>213</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3431713417.268152</v>
+        <v>3232169335.786904</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1093118531611823</v>
+        <v>0.08967629379054978</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02452866352408224</v>
+        <v>0.02686913007598442</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2180718944.03037</v>
+        <v>3323915780.816514</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1337261505134459</v>
+        <v>0.1086221614037384</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03362826013369575</v>
+        <v>0.02465188085464504</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3375537502.595342</v>
+        <v>4615339535.86536</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1511987143808181</v>
+        <v>0.1589990597923527</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02657190144765924</v>
+        <v>0.02723429394059347</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>88</v>
+      </c>
+      <c r="J100" t="n">
+        <v>213</v>
+      </c>
+      <c r="K100" t="n">
+        <v>112.0509051496713</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2678465966.520353</v>
+        <v>2346965101.174605</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1928113763730936</v>
+        <v>0.2189216836984223</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04312788337126931</v>
+        <v>0.04943560821050462</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
